--- a/offline_swapi_data.xlsx
+++ b/offline_swapi_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,11 +515,6 @@
           <t>url</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>full_name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,11 +597,6 @@
           <t>https://swapi.dev/api/people/1/</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Luke Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,11 +671,6 @@
           <t>https://swapi.dev/api/people/2/</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>C-3PO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -760,11 +745,6 @@
           <t>https://swapi.dev/api/people/3/</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>R2-D2</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -847,11 +827,6 @@
           <t>https://swapi.dev/api/people/4/</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Darth Vader</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -934,11 +909,6 @@
           <t>https://swapi.dev/api/people/5/</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Leia Organa</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1021,11 +991,6 @@
           <t>https://swapi.dev/api/people/6/</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Owen Lars</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1108,11 +1073,6 @@
           <t>https://swapi.dev/api/people/7/</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Beru Whitesun lars</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1187,11 +1147,6 @@
           <t>https://swapi.dev/api/people/8/</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>R5-D4</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1274,11 +1229,6 @@
           <t>https://swapi.dev/api/people/9/</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Biggs Darklighter</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1361,11 +1311,6 @@
           <t>https://swapi.dev/api/people/10/</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1448,11 +1393,6 @@
           <t>https://swapi.dev/api/people/11/</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1535,11 +1475,6 @@
           <t>https://swapi.dev/api/people/12/</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Wilhuff Tarkin</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1622,11 +1557,6 @@
           <t>https://swapi.dev/api/people/13/</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Chewbacca</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1709,11 +1639,6 @@
           <t>https://swapi.dev/api/people/14/</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Han Solo</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1792,11 +1717,6 @@
           <t>https://swapi.dev/api/people/15/</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Greedo</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1875,11 +1795,6 @@
           <t>https://swapi.dev/api/people/16/</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Jabba Desilijic Tiure</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1962,11 +1877,6 @@
           <t>https://swapi.dev/api/people/18/</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Wedge Antilles</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2049,11 +1959,6 @@
           <t>https://swapi.dev/api/people/19/</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Jek Tono Porkins</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2136,11 +2041,6 @@
           <t>https://swapi.dev/api/people/20/</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Yoda</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2223,11 +2123,6 @@
           <t>https://swapi.dev/api/people/21/</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Palpatine</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2310,11 +2205,6 @@
           <t>https://swapi.dev/api/people/22/</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Boba Fett</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2397,11 +2287,6 @@
           <t>https://swapi.dev/api/people/23/</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>IG-88</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2484,11 +2369,6 @@
           <t>https://swapi.dev/api/people/24/</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2571,11 +2451,6 @@
           <t>https://swapi.dev/api/people/25/</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Lando Calrissian</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2658,11 +2533,6 @@
           <t>https://swapi.dev/api/people/26/</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Lobot</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2745,11 +2615,6 @@
           <t>https://swapi.dev/api/people/27/</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Ackbar</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2832,11 +2697,6 @@
           <t>https://swapi.dev/api/people/28/</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Mon Mothma</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2919,11 +2779,6 @@
           <t>https://swapi.dev/api/people/29/</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Arvel Crynyd</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3006,11 +2861,6 @@
           <t>https://swapi.dev/api/people/30/</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Wicket Systri Warrick</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3093,11 +2943,6 @@
           <t>https://swapi.dev/api/people/31/</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Nien Nunb</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3180,11 +3025,6 @@
           <t>https://swapi.dev/api/people/32/</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Qui-Gon Jinn</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3267,11 +3107,6 @@
           <t>https://swapi.dev/api/people/33/</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Nute Gunray</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3354,11 +3189,6 @@
           <t>https://swapi.dev/api/people/34/</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Finis Valorum</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3441,11 +3271,6 @@
           <t>https://swapi.dev/api/people/35/</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Padmé Amidala</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3528,11 +3353,6 @@
           <t>https://swapi.dev/api/people/36/</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Jar Jar Binks</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3615,11 +3435,6 @@
           <t>https://swapi.dev/api/people/37/</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Roos Tarpals</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3702,11 +3517,6 @@
           <t>https://swapi.dev/api/people/38/</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Rugor Nass</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3789,11 +3599,6 @@
           <t>https://swapi.dev/api/people/39/</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Ric Olié</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3876,11 +3681,6 @@
           <t>https://swapi.dev/api/people/40/</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Watto</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3963,11 +3763,6 @@
           <t>https://swapi.dev/api/people/41/</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Sebulba</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4050,11 +3845,6 @@
           <t>https://swapi.dev/api/people/42/</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Quarsh Panaka</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4137,11 +3927,6 @@
           <t>https://swapi.dev/api/people/43/</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Shmi Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4224,11 +4009,6 @@
           <t>https://swapi.dev/api/people/44/</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4311,11 +4091,6 @@
           <t>https://swapi.dev/api/people/45/</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Bib Fortuna</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4398,11 +4173,6 @@
           <t>https://swapi.dev/api/people/46/</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Ayla Secura</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4485,11 +4255,6 @@
           <t>https://swapi.dev/api/people/47/</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Ratts Tyerel</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4572,11 +4337,6 @@
           <t>https://swapi.dev/api/people/48/</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Dud Bolt</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4659,11 +4419,6 @@
           <t>https://swapi.dev/api/people/49/</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Gasgano</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4746,11 +4501,6 @@
           <t>https://swapi.dev/api/people/50/</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Ben Quadinaros</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4833,11 +4583,6 @@
           <t>https://swapi.dev/api/people/51/</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Mace Windu</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4920,11 +4665,6 @@
           <t>https://swapi.dev/api/people/52/</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Ki-Adi-Mundi</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5007,11 +4747,6 @@
           <t>https://swapi.dev/api/people/53/</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Kit Fisto</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5094,11 +4829,6 @@
           <t>https://swapi.dev/api/people/54/</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Eeth Koth</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5181,11 +4911,6 @@
           <t>https://swapi.dev/api/people/55/</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Adi Gallia</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5268,11 +4993,6 @@
           <t>https://swapi.dev/api/people/56/</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Saesee Tiin</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5355,11 +5075,6 @@
           <t>https://swapi.dev/api/people/57/</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Yarael Poof</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5442,11 +5157,6 @@
           <t>https://swapi.dev/api/people/58/</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Plo Koon</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5529,11 +5239,6 @@
           <t>https://swapi.dev/api/people/59/</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Mas Amedda</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5616,11 +5321,6 @@
           <t>https://swapi.dev/api/people/60/</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Gregar Typho</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5703,11 +5403,6 @@
           <t>https://swapi.dev/api/people/61/</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Cordé</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5790,11 +5485,6 @@
           <t>https://swapi.dev/api/people/62/</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Cliegg Lars</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5877,11 +5567,6 @@
           <t>https://swapi.dev/api/people/63/</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Poggle the Lesser</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5964,11 +5649,6 @@
           <t>https://swapi.dev/api/people/64/</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Luminara Unduli</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6051,11 +5731,6 @@
           <t>https://swapi.dev/api/people/65/</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Barriss Offee</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6138,11 +5813,6 @@
           <t>https://swapi.dev/api/people/66/</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Dormé</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6225,11 +5895,6 @@
           <t>https://swapi.dev/api/people/67/</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Dooku</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6312,11 +5977,6 @@
           <t>https://swapi.dev/api/people/68/</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Bail Prestor Organa</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6399,11 +6059,6 @@
           <t>https://swapi.dev/api/people/69/</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Jango Fett</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6486,11 +6141,6 @@
           <t>https://swapi.dev/api/people/70/</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Zam Wesell</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6573,11 +6223,6 @@
           <t>https://swapi.dev/api/people/71/</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Dexter Jettster</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6660,11 +6305,6 @@
           <t>https://swapi.dev/api/people/72/</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Lama Su</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6747,11 +6387,6 @@
           <t>https://swapi.dev/api/people/73/</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Taun We</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6834,11 +6469,6 @@
           <t>https://swapi.dev/api/people/74/</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Jocasta Nu</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6921,11 +6551,6 @@
           <t>https://swapi.dev/api/people/75/</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>R4-P17</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7008,11 +6633,6 @@
           <t>https://swapi.dev/api/people/76/</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Wat Tambor</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7095,11 +6715,6 @@
           <t>https://swapi.dev/api/people/77/</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>San Hill</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7182,11 +6797,6 @@
           <t>https://swapi.dev/api/people/78/</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Shaak Ti</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7269,11 +6879,6 @@
           <t>https://swapi.dev/api/people/79/</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>Grievous</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7356,11 +6961,6 @@
           <t>https://swapi.dev/api/people/80/</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Tarfful</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7443,11 +7043,6 @@
           <t>https://swapi.dev/api/people/81/</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Raymus Antilles</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7530,11 +7125,6 @@
           <t>https://swapi.dev/api/people/82/</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Sly Moore</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7615,11 +7205,6 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/83/</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Tion Medon</t>
         </is>
       </c>
     </row>
@@ -7755,8 +7340,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>200000</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -7825,8 +7412,10 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>2000000000</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -7895,8 +7484,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1000</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -7965,7 +7556,11 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8029,7 +7624,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8097,8 +7696,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>6000000</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -8167,8 +7768,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>30000000</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -8237,8 +7840,10 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>4500000000</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4500000000</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -8307,8 +7912,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>1000000000000</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1000000000000</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -8377,8 +7984,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>1000000000</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -8447,8 +8056,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>100000000000</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100000000000</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -8517,8 +8128,10 @@
           <t>0.9</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>95000000</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>95000000</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -8587,8 +8200,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>20000</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -8657,8 +8272,10 @@
           <t>60</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>45000000</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>45000000</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -8727,8 +8344,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>1000000</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -8797,8 +8416,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>19000000</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19000000</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -8867,8 +8488,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>8500000</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8500000</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -8937,8 +8560,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>10000000</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -9007,8 +8632,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>1400000000</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1400000000</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -9077,7 +8704,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/10/']</t>
@@ -9145,8 +8776,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>22000000000</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>22000000000</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -9215,8 +8848,10 @@
           <t>70</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>3000000000</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3000000000</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -9285,8 +8920,10 @@
           <t>60</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>1300000000</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1300000000</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -9355,8 +8992,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>7000000000</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>7000000000</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -9425,8 +9064,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>1000</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -9495,8 +9136,10 @@
           <t>98</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>62000000</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>62000000</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -9565,8 +9208,10 @@
           <t>10</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>4000000000</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4000000000</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -9635,7 +9280,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/20/', 'https://swapi.dev/api/people/23/', 'https://swapi.dev/api/people/29/', 'https://swapi.dev/api/people/32/', 'https://swapi.dev/api/people/75/']</t>
@@ -9703,8 +9352,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>42000000</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -9773,8 +9424,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>300000000</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>300000000</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -9843,8 +9496,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>27000000000</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>27000000000</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -9913,8 +9568,10 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>1200000000</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1200000000</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -9983,8 +9640,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>18500000000</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18500000000</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -10053,8 +9712,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>11000000</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11000000</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -10123,8 +9784,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>2000000000</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -10193,8 +9856,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>5200</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -10263,8 +9928,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>1500000000</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1500000000</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -10333,7 +10000,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/47/']</t>
@@ -10401,8 +10072,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>421000000</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>421000000</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -10471,7 +10144,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/49/']</t>
@@ -10539,8 +10216,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -10609,8 +10288,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>705300</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>705300</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -10679,8 +10360,10 @@
           <t>20</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>450000000</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>450000000</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -10749,8 +10432,10 @@
           <t>80</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>500000000</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>500000000</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -10819,7 +10504,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/54/']</t>
@@ -10887,7 +10576,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10955,7 +10648,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/56/']</t>
@@ -11023,7 +10720,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/57/']</t>
@@ -11091,7 +10792,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/58/']</t>
@@ -11159,8 +10864,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>3500000000</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3500000000</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -11229,7 +10936,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/64/', 'https://swapi.dev/api/people/65/']</t>
@@ -11297,7 +11008,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/67/']</t>
@@ -11365,7 +11080,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/69/']</t>
@@ -11433,7 +11152,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/70/']</t>
@@ -11501,8 +11224,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>500000000</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>500000000</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -11571,8 +11296,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>500000000000</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>500000000000</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -11641,8 +11368,10 @@
           <t>25</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>5000000000</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5000000000</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -11711,7 +11440,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/78/']</t>
@@ -11779,8 +11512,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>4000000000</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4000000000</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -11849,7 +11584,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/82/']</t>
